--- a/biology/Zoologie/Conus_archiepiscopus/Conus_archiepiscopus.xlsx
+++ b/biology/Zoologie/Conus_archiepiscopus/Conus_archiepiscopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus archiepiscopus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine est présente au large de la Tanzanie et de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine est présente au large de la Tanzanie et de Madagascar.
 </t>
         </is>
       </c>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus archiepiscopus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798)[2],[1].
-Synonymes
-Conus (Cylinder) archiepiscopus Hwass, 1792 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus archiepiscopus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_archiepiscopus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_archiepiscopus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Conus (Cylinder) archiepiscopus Hwass, 1792 · appellation alternative
 Conus (Cylinder) priscai Bozzetti, 2012 · non accepté
 Conus (Darioconus) biancae Bozzetti, 2010 · non accepté
 Conus biancae Bozzetti, 2010 · non accepté
